--- a/biology/Histoire de la zoologie et de la botanique/Johan_Reinhold_Sahlberg/Johan_Reinhold_Sahlberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johan_Reinhold_Sahlberg/Johan_Reinhold_Sahlberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johan Reinhold Sahlberg (dit John Sahlberg), né le 6 juin 1845 à Helsingfors (grand-duché de Finlande, lié à l'Empire russe) et mort le 8 mai 1920 dans cette même ville, est un entomologiste et botaniste suédophone de Finlande qui s'est surtout spécialisé dans l'étude des coléoptères et des hémiptères. C'est le fils de l'entomologiste Reinhold Ferdinand Sahlberg (1811-1874), le petit-fils de l'entomologiste Carl Reinhold Sahlberg (1774-1860)[1] et le père de Uunio Saalas (1882-1969), entomologiste et professeur[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johan Reinhold Sahlberg (dit John Sahlberg), né le 6 juin 1845 à Helsingfors (grand-duché de Finlande, lié à l'Empire russe) et mort le 8 mai 1920 dans cette même ville, est un entomologiste et botaniste suédophone de Finlande qui s'est surtout spécialisé dans l'étude des coléoptères et des hémiptères. C'est le fils de l'entomologiste Reinhold Ferdinand Sahlberg (1811-1874), le petit-fils de l'entomologiste Carl Reinhold Sahlberg (1774-1860) et le père de Uunio Saalas (1882-1969), entomologiste et professeur.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une lignée distinguée d'entomologistes, Johan Reinhold Sahlberg entre en 1865 à l'université impériale Alexandre (où son grand-père a enseigné autrefois). Il reçoit son grade de magister philosophiæ en 1869 et son titre de dozent en zoologie en 1871. Il est professeur extraordinaire de l'université Alexandre de 1883 à 1918, où il forme de futurs entomologistes qui marquent l'enseignement de l'histoire naturelle en Finlande.
-Il effectue de nombreuses expéditions à travers la Finlande pour étudier la faune des insectes, ainsi qu'en Carélie, en mer Blanche (1869), en Laponie (1870), au nord-ouest de la Sibérie (1876), ainsi qu'en Suède et en Norvège (1879). Il fait un grand voyage en Méditerranée en 1894, se rend en Italie, à Corfou et en Palestine et atteint les régions transcaspiennes qu'il explore en 1895-1896. Il visite la Tunisie et l'Algérie en 1898-1899, puis fait un voyage en 1903-1904 en Égypte, Syrie et Asie mineure avec Constantin Ahnger (1855-1942)[3]. Son dernier voyage d'importance a lieu en 1906 en Dalmatie et en Herzégovine.
+Il effectue de nombreuses expéditions à travers la Finlande pour étudier la faune des insectes, ainsi qu'en Carélie, en mer Blanche (1869), en Laponie (1870), au nord-ouest de la Sibérie (1876), ainsi qu'en Suède et en Norvège (1879). Il fait un grand voyage en Méditerranée en 1894, se rend en Italie, à Corfou et en Palestine et atteint les régions transcaspiennes qu'il explore en 1895-1896. Il visite la Tunisie et l'Algérie en 1898-1899, puis fait un voyage en 1903-1904 en Égypte, Syrie et Asie mineure avec Constantin Ahnger (1855-1942). Son dernier voyage d'importance a lieu en 1906 en Dalmatie et en Herzégovine.
 Ses nombreuses collections se trouvent aujourd'hui au musée d'histoire naturelle de Finlande.
-Son épouse Augusta Teresia Wilhelmina Werving (dite Mimmi) (1845-1925)[4], botaniste amateur et première femme membre de la Societas pro Fauna et Flora Fennica, l'accompagne régulièrement dans ses expéditions et inventorie la flore[5].
+Son épouse Augusta Teresia Wilhelmina Werving (dite Mimmi) (1845-1925), botaniste amateur et première femme membre de la Societas pro Fauna et Flora Fennica, l'accompagne régulièrement dans ses expéditions et inventorie la flore.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(sv) 1871. Öfversigt af Finlands och den Skandinaviska halföns Cicadariae, lire en ligne
 (sv) 1871. « Entomologiska anteckningar fran en resa i sydöstra Karelen sommaren 1866 ». Notiser ur Sällskapets pro Fauna et Flora Fennica 11: 327–384
@@ -584,7 +600,9 @@
           <t>Quelques taxons créés par J. Sahlberg</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hemiptera, Auchenorrhyncha, Aphrophoridae
@@ -751,10 +769,12 @@
           <t>Taxons nommés en hommage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Des taxons ont été nommés en son hommage, tels que : 
-Somatochlora salhbergi (Odonata, Corduliidae)[6]</t>
+Somatochlora salhbergi (Odonata, Corduliidae)</t>
         </is>
       </c>
     </row>
